--- a/ozone/multistate/ANO-RCC-VTZP/ozone_108.00/ozone_108.00_energies.xlsx
+++ b/ozone/multistate/ANO-RCC-VTZP/ozone_108.00/ozone_108.00_energies.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7366229569</v>
+        <v>-0.5606716533</v>
       </c>
       <c r="C2" t="n">
-        <v>-224.51126374</v>
+        <v>-224.73150253</v>
       </c>
       <c r="D2" t="n">
-        <v>-225.2478867</v>
+        <v>-225.29217418</v>
       </c>
       <c r="E2" t="n">
-        <v>-224.506431698</v>
+        <v>-224.5064316978</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7867770727</v>
+        <v>-0.5692607282</v>
       </c>
       <c r="C3" t="n">
-        <v>-224.49555869</v>
+        <v>-224.66826609</v>
       </c>
       <c r="D3" t="n">
-        <v>-225.28233577</v>
+        <v>-225.23752682</v>
       </c>
       <c r="E3" t="n">
-        <v>-224.506431698</v>
+        <v>-224.5064316978</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8359419901</v>
+        <v>-0.5704422631</v>
       </c>
       <c r="C4" t="n">
-        <v>-224.42607401</v>
+        <v>-224.63991225</v>
       </c>
       <c r="D4" t="n">
-        <v>-225.262016</v>
+        <v>-225.21035452</v>
       </c>
       <c r="E4" t="n">
-        <v>-224.506431698</v>
+        <v>-224.5064316978</v>
       </c>
     </row>
   </sheetData>
